--- a/medicine/Pharmacie/Fritillaria_cirrhosa/Fritillaria_cirrhosa.xlsx
+++ b/medicine/Pharmacie/Fritillaria_cirrhosa/Fritillaria_cirrhosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritillaria cirrhosa est une espèce de plantes du genre Fritillaria, dont le bulbe est utilisé en herbologie chinoise pour lutter contre les infections pulmonaires (dont les rhumes).
 Il ne contient pas de toxines.
